--- a/rentafail_1/data/New Microsoft Excel Worksheet.xlsx
+++ b/rentafail_1/data/New Microsoft Excel Worksheet.xlsx
@@ -1,21 +1,557 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="177">
+  <si>
+    <t>Harding</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>{id_video:</t>
+  </si>
+  <si>
+    <t>name:</t>
+  </si>
+  <si>
+    <t>url:</t>
+  </si>
+  <si>
+    <t>nisl}</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>eu}</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Nunc}</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>arcu.}</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>libero.}</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>gravida.}</t>
+  </si>
+  <si>
+    <t>Hammett</t>
+  </si>
+  <si>
+    <t>penatibus}</t>
+  </si>
+  <si>
+    <t>Malachi</t>
+  </si>
+  <si>
+    <t>Aenean}</t>
+  </si>
+  <si>
+    <t>Harlan</t>
+  </si>
+  <si>
+    <t>aliquet</t>
+  </si>
+  <si>
+    <t>Merritt</t>
+  </si>
+  <si>
+    <t>vestibulum}</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>sodales}</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>nec}</t>
+  </si>
+  <si>
+    <t>Conan</t>
+  </si>
+  <si>
+    <t>dignissim.}</t>
+  </si>
+  <si>
+    <t>Yuli</t>
+  </si>
+  <si>
+    <t>tristique}</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>lacus}</t>
+  </si>
+  <si>
+    <t>Fletcher</t>
+  </si>
+  <si>
+    <t>purus.}</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Integer}</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>ipsum}</t>
+  </si>
+  <si>
+    <t>Uriel</t>
+  </si>
+  <si>
+    <t>dapibus}</t>
+  </si>
+  <si>
+    <t>Quinlan</t>
+  </si>
+  <si>
+    <t>consectetuer}</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>condimentum}</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>tempor}</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>dolor}</t>
+  </si>
+  <si>
+    <t>Basil</t>
+  </si>
+  <si>
+    <t>turpis}</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>eget}</t>
+  </si>
+  <si>
+    <t>Grady</t>
+  </si>
+  <si>
+    <t>tincidunt.}</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>porttitor}</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>magna.}</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Reuben</t>
+  </si>
+  <si>
+    <t>Proin}</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>auctor</t>
+  </si>
+  <si>
+    <t>Keaton</t>
+  </si>
+  <si>
+    <t>quis}</t>
+  </si>
+  <si>
+    <t>Neil</t>
+  </si>
+  <si>
+    <t>a}</t>
+  </si>
+  <si>
+    <t>Declan</t>
+  </si>
+  <si>
+    <t>Quisque}</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>fermentum}</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>ligula.}</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Sed}</t>
+  </si>
+  <si>
+    <t>Armand</t>
+  </si>
+  <si>
+    <t>vehicula}</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>ut}</t>
+  </si>
+  <si>
+    <t>Wing</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>luctus}</t>
+  </si>
+  <si>
+    <t>Kennan</t>
+  </si>
+  <si>
+    <t>rutrum.}</t>
+  </si>
+  <si>
+    <t>Baxter</t>
+  </si>
+  <si>
+    <t>Fusce}</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Mauris}</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>ornare}</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>euismod}</t>
+  </si>
+  <si>
+    <t>varius}</t>
+  </si>
+  <si>
+    <t>Ira</t>
+  </si>
+  <si>
+    <t>Aliquam}</t>
+  </si>
+  <si>
+    <t>Prescott</t>
+  </si>
+  <si>
+    <t>senectus}</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>metus.}</t>
+  </si>
+  <si>
+    <t>Octavius</t>
+  </si>
+  <si>
+    <t>nunc}</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>in}</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>orci.}</t>
+  </si>
+  <si>
+    <t>Alden</t>
+  </si>
+  <si>
+    <t>ornare</t>
+  </si>
+  <si>
+    <t>Nigel</t>
+  </si>
+  <si>
+    <t>In}</t>
+  </si>
+  <si>
+    <t>Tad</t>
+  </si>
+  <si>
+    <t>dui.}</t>
+  </si>
+  <si>
+    <t>Vernon</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>risus}</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>mollis}</t>
+  </si>
+  <si>
+    <t>Silas</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Suspendisse}</t>
+  </si>
+  <si>
+    <t>Arsenio</t>
+  </si>
+  <si>
+    <t>eros}</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Jakeem</t>
+  </si>
+  <si>
+    <t>lectus}</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Donec}</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>odio</t>
+  </si>
+  <si>
+    <t>Raja</t>
+  </si>
+  <si>
+    <t>sociosqu}</t>
+  </si>
+  <si>
+    <t>Dalton</t>
+  </si>
+  <si>
+    <t>Zahir</t>
+  </si>
+  <si>
+    <t>pede}</t>
+  </si>
+  <si>
+    <t>Amos</t>
+  </si>
+  <si>
+    <t>aliquet}</t>
+  </si>
+  <si>
+    <t>Garth</t>
+  </si>
+  <si>
+    <t>ac}</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>amet</t>
+  </si>
+  <si>
+    <t>Cullen</t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t>Randall</t>
+  </si>
+  <si>
+    <t>non}</t>
+  </si>
+  <si>
+    <t>mauris.}</t>
+  </si>
+  <si>
+    <t>Hop</t>
+  </si>
+  <si>
+    <t>molestie}</t>
+  </si>
+  <si>
+    <t>Macaulay</t>
+  </si>
+  <si>
+    <t>Geoffrey</t>
+  </si>
+  <si>
+    <t>sem}</t>
+  </si>
+  <si>
+    <t>Rooney</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>sit}</t>
+  </si>
+  <si>
+    <t>tincidunt}</t>
+  </si>
+  <si>
+    <t>Reece</t>
+  </si>
+  <si>
+    <t>natoque}</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Aidan</t>
+  </si>
+  <si>
+    <t>lobortis}</t>
+  </si>
+  <si>
+    <t>Kadeem</t>
+  </si>
+  <si>
+    <t>fames}</t>
+  </si>
+  <si>
+    <t>Curran</t>
+  </si>
+  <si>
+    <t>ornare.}</t>
+  </si>
+  <si>
+    <t>Brennan</t>
+  </si>
+  <si>
+    <t>litora}</t>
+  </si>
+  <si>
+    <t>Damian</t>
+  </si>
+  <si>
+    <t>nisi.}</t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>torquent}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +588,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +642,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +677,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +885,2043 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>55</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>57</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>114</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>58</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>59</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>61</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>62</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>64</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>66</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>69</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>70</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>135</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>71</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>72</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>74</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>76</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>146</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>77</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>78</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>79</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>149</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>81</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>82</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>83</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>155</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>84</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>157</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>85</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>86</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>87</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>159</v>
+      </c>
+      <c r="F87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>88</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>89</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>90</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>91</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>136</v>
+      </c>
+      <c r="F91" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>92</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>93</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>164</v>
+      </c>
+      <c r="F93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>92</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>94</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>165</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>95</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>167</v>
+      </c>
+      <c r="F95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>96</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>169</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>97</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>171</v>
+      </c>
+      <c r="F97" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>98</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>173</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>99</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>130</v>
+      </c>
+      <c r="F99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>175</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>